--- a/assets/resources/config/weaponConfig.xlsx
+++ b/assets/resources/config/weaponConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -56,19 +56,139 @@
     <t>hp</t>
   </si>
   <si>
+    <t>attackResource</t>
+  </si>
+  <si>
+    <t>actionResource</t>
+  </si>
+  <si>
+    <t>stateResource</t>
+  </si>
+  <si>
+    <t>attackStartIndex</t>
+  </si>
+  <si>
+    <t>attackCount</t>
+  </si>
+  <si>
+    <t>assistancStartIndex</t>
+  </si>
+  <si>
+    <t>assistanceCount</t>
+  </si>
+  <si>
+    <t>specialAttackStartIndex</t>
+  </si>
+  <si>
+    <t>specialAttackCount</t>
+  </si>
+  <si>
+    <t>helloStartIndex</t>
+  </si>
+  <si>
+    <t>helloCount</t>
+  </si>
+  <si>
+    <t>regretStartIndex</t>
+  </si>
+  <si>
+    <t>regretCount</t>
+  </si>
+  <si>
+    <t>standStartIndex</t>
+  </si>
+  <si>
+    <t>standCount</t>
+  </si>
+  <si>
+    <t>victoryStartIndex</t>
+  </si>
+  <si>
+    <t>victoryCount</t>
+  </si>
+  <si>
+    <t>beHitStartIndex</t>
+  </si>
+  <si>
+    <t>beHitCount</t>
+  </si>
+  <si>
+    <t>blockStartIndex</t>
+  </si>
+  <si>
+    <t>blockCount</t>
+  </si>
+  <si>
+    <t>deadStartIndex</t>
+  </si>
+  <si>
+    <t>deadCount</t>
+  </si>
+  <si>
+    <t>moveStartIndex</t>
+  </si>
+  <si>
+    <t>moveCount</t>
+  </si>
+  <si>
     <t>BLADE</t>
   </si>
   <si>
+    <t>role/man/blade/attack</t>
+  </si>
+  <si>
+    <t>role/man/blade/action</t>
+  </si>
+  <si>
+    <t>role/man/blade/state</t>
+  </si>
+  <si>
     <t>SWORD</t>
   </si>
   <si>
+    <t>role/man/sword/attack</t>
+  </si>
+  <si>
+    <t>role/man/sword/action</t>
+  </si>
+  <si>
+    <t>role/man/sword/state</t>
+  </si>
+  <si>
     <t>SPEAR</t>
   </si>
   <si>
+    <t>role/man/spear/attack</t>
+  </si>
+  <si>
+    <t>role/man/spear/action</t>
+  </si>
+  <si>
+    <t>role/man/spear/state</t>
+  </si>
+  <si>
     <t>KNIFE</t>
   </si>
   <si>
+    <t>role/woman/knife/attack</t>
+  </si>
+  <si>
+    <t>role/woman/knife/action</t>
+  </si>
+  <si>
+    <t>role/woman/knife/state</t>
+  </si>
+  <si>
     <t>BOW</t>
+  </si>
+  <si>
+    <t>role/woman/bow/attack</t>
+  </si>
+  <si>
+    <t>role/woman/bow/action</t>
+  </si>
+  <si>
+    <t>role/woman/bow/state</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1227,9 +1347,33 @@
     <col min="5" max="6" width="12.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="9.54545454545454" customWidth="1"/>
+    <col min="10" max="11" width="26.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="25.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="21.9090909090909" customWidth="1"/>
+    <col min="14" max="14" width="17.3636363636364" customWidth="1"/>
+    <col min="15" max="15" width="18.5454545454545" customWidth="1"/>
+    <col min="16" max="16" width="17.3636363636364" customWidth="1"/>
+    <col min="17" max="17" width="26.3636363636364" customWidth="1"/>
+    <col min="18" max="18" width="20.8181818181818" customWidth="1"/>
+    <col min="19" max="19" width="17.3636363636364" customWidth="1"/>
+    <col min="20" max="20" width="11.8181818181818" customWidth="1"/>
+    <col min="21" max="21" width="18.5454545454545" customWidth="1"/>
+    <col min="22" max="22" width="12.9090909090909" customWidth="1"/>
+    <col min="23" max="23" width="17.3636363636364" customWidth="1"/>
+    <col min="24" max="24" width="11.8181818181818" customWidth="1"/>
+    <col min="25" max="25" width="19.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="17.3636363636364" customWidth="1"/>
+    <col min="28" max="28" width="11.8181818181818" customWidth="1"/>
+    <col min="29" max="29" width="17.3636363636364" customWidth="1"/>
+    <col min="30" max="30" width="11.8181818181818" customWidth="1"/>
+    <col min="31" max="31" width="16.2727272727273" customWidth="1"/>
+    <col min="32" max="32" width="10.6363636363636" customWidth="1"/>
+    <col min="33" max="33" width="16.2727272727273" customWidth="1"/>
+    <col min="34" max="34" width="10.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,10 +1401,85 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1286,10 +1505,85 @@
       <c r="I2">
         <v>5</v>
       </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>88</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>56</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>80</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>24</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>40</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>64</v>
+      </c>
+      <c r="AH2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1315,10 +1609,85 @@
       <c r="I3">
         <v>5</v>
       </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3">
+        <v>48</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>88</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>56</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>88</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>112</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>24</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>40</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+      <c r="AG3">
+        <v>64</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1344,10 +1713,85 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>88</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>56</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>88</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>112</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>24</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>40</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>64</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1373,10 +1817,85 @@
       <c r="I5">
         <v>5</v>
       </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>88</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>56</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>88</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>112</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>24</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>40</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>64</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1400,6 +1919,81 @@
         <v>45</v>
       </c>
       <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>88</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>24</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>56</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>80</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>24</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>40</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>64</v>
+      </c>
+      <c r="AH6">
         <v>5</v>
       </c>
     </row>

--- a/assets/resources/config/weaponConfig.xlsx
+++ b/assets/resources/config/weaponConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>type</t>
   </si>
@@ -146,13 +146,13 @@
     <t>SWORD</t>
   </si>
   <si>
-    <t>role/man/sword/attack</t>
-  </si>
-  <si>
-    <t>role/man/sword/action</t>
-  </si>
-  <si>
-    <t>role/man/sword/state</t>
+    <t>role/woman/knife/attack</t>
+  </si>
+  <si>
+    <t>role/woman/knife/action</t>
+  </si>
+  <si>
+    <t>role/woman/knife/state</t>
   </si>
   <si>
     <t>SPEAR</t>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>KNIFE</t>
-  </si>
-  <si>
-    <t>role/woman/knife/attack</t>
-  </si>
-  <si>
-    <t>role/woman/knife/action</t>
-  </si>
-  <si>
-    <t>role/woman/knife/state</t>
   </si>
   <si>
     <t>BOW</t>
@@ -201,7 +192,20 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,31 +660,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,124 +682,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -860,221 +878,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1084,9 +888,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1118,15 +922,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,132 +1000,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1332,673 +1171,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="6.54545454545455" customWidth="1"/>
-    <col min="2" max="3" width="10.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="7.54545454545455" customWidth="1"/>
-    <col min="5" max="6" width="12.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="9.54545454545454" customWidth="1"/>
-    <col min="10" max="11" width="26.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="25.2727272727273" customWidth="1"/>
-    <col min="13" max="13" width="21.9090909090909" customWidth="1"/>
-    <col min="14" max="14" width="17.3636363636364" customWidth="1"/>
-    <col min="15" max="15" width="18.5454545454545" customWidth="1"/>
-    <col min="16" max="16" width="17.3636363636364" customWidth="1"/>
-    <col min="17" max="17" width="26.3636363636364" customWidth="1"/>
-    <col min="18" max="18" width="20.8181818181818" customWidth="1"/>
-    <col min="19" max="19" width="17.3636363636364" customWidth="1"/>
-    <col min="20" max="20" width="11.8181818181818" customWidth="1"/>
-    <col min="21" max="21" width="18.5454545454545" customWidth="1"/>
-    <col min="22" max="22" width="12.9090909090909" customWidth="1"/>
-    <col min="23" max="23" width="17.3636363636364" customWidth="1"/>
-    <col min="24" max="24" width="11.8181818181818" customWidth="1"/>
-    <col min="25" max="25" width="19.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="17.3636363636364" customWidth="1"/>
-    <col min="28" max="28" width="11.8181818181818" customWidth="1"/>
-    <col min="29" max="29" width="17.3636363636364" customWidth="1"/>
-    <col min="30" max="30" width="11.8181818181818" customWidth="1"/>
-    <col min="31" max="31" width="16.2727272727273" customWidth="1"/>
-    <col min="32" max="32" width="10.6363636363636" customWidth="1"/>
-    <col min="33" max="33" width="16.2727272727273" customWidth="1"/>
-    <col min="34" max="34" width="10.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="6.57272727272727" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.57272727272727" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.8636363636364" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.8636363636364" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.57272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5727272727273" style="2" customWidth="1"/>
+    <col min="10" max="11" width="26.4363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.2909090909091" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.8636363636364" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.4363636363636" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.5727272727273" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.4363636363636" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.4363636363636" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.8636363636364" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.4363636363636" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.8636363636364" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.5727272727273" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.8636363636364" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.4363636363636" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.8636363636364" style="2" customWidth="1"/>
+    <col min="25" max="25" width="19.5727272727273" style="2" customWidth="1"/>
+    <col min="26" max="26" width="14.0090909090909" style="2" customWidth="1"/>
+    <col min="27" max="27" width="17.4363636363636" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.8636363636364" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.4363636363636" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.8636363636364" style="2" customWidth="1"/>
+    <col min="31" max="31" width="16.2909090909091" style="2" customWidth="1"/>
+    <col min="32" max="32" width="10.5727272727273" style="2" customWidth="1"/>
+    <col min="33" max="33" width="16.2909090909091" style="2" customWidth="1"/>
+    <col min="34" max="34" width="10.5727272727273" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:34">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:34">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
         <v>1.5</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="5">
         <v>48</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="5">
         <v>5</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="5">
         <v>88</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>3</v>
+      </c>
+      <c r="U2" s="5">
         <v>24</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="5">
         <v>4</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="5">
         <v>56</v>
       </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
+      <c r="X2" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="5">
         <v>80</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="5">
         <v>7</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2">
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="5">
         <v>24</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="5">
         <v>2</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="5">
         <v>40</v>
       </c>
-      <c r="AF2">
-        <v>3</v>
-      </c>
-      <c r="AG2">
+      <c r="AF2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="5">
         <v>64</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
+    <row r="3" ht="19.5" customHeight="1" spans="1:34">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
         <v>1.5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>1.5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>60</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5</v>
+      </c>
+      <c r="O3" s="5">
+        <v>40</v>
+      </c>
+      <c r="P3" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>88</v>
+      </c>
+      <c r="R3" s="5">
+        <v>10</v>
+      </c>
+      <c r="S3" s="5">
+        <v>72</v>
+      </c>
+      <c r="T3" s="5">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5">
+        <v>96</v>
+      </c>
+      <c r="V3" s="5">
+        <v>3</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:34">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="5">
         <v>48</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="5">
         <v>5</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
         <v>6</v>
       </c>
-      <c r="Q3">
+      <c r="Q4" s="5">
         <v>88</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="5">
         <v>10</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
         <v>7</v>
       </c>
-      <c r="U3">
+      <c r="U4" s="5">
         <v>56</v>
       </c>
-      <c r="V3">
+      <c r="V4" s="5">
         <v>4</v>
       </c>
-      <c r="W3">
+      <c r="W4" s="5">
         <v>88</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3">
+      <c r="X4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5">
         <v>112</v>
       </c>
-      <c r="Z3">
-        <v>3</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
+      <c r="Z4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="5">
         <v>24</v>
       </c>
-      <c r="AD3">
+      <c r="AD4" s="5">
         <v>2</v>
       </c>
-      <c r="AE3">
+      <c r="AE4" s="5">
         <v>40</v>
       </c>
-      <c r="AF3">
-        <v>3</v>
-      </c>
-      <c r="AG3">
+      <c r="AF4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="5">
         <v>64</v>
       </c>
-      <c r="AH3">
+      <c r="AH4" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
+    <row r="5" ht="19.5" customHeight="1" spans="1:34">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>90</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>40</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>88</v>
+      </c>
+      <c r="R5" s="5">
+        <v>10</v>
+      </c>
+      <c r="S5" s="5">
+        <v>72</v>
+      </c>
+      <c r="T5" s="5">
+        <v>3</v>
+      </c>
+      <c r="U5" s="5">
+        <v>96</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="5">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="AE5" s="5">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:34">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5">
+        <v>40</v>
+      </c>
+      <c r="P6" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>88</v>
+      </c>
+      <c r="R6" s="5">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>24</v>
+      </c>
+      <c r="V6" s="5">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>48</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>88</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="W6" s="5">
+        <v>56</v>
+      </c>
+      <c r="X6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z6" s="5">
         <v>7</v>
       </c>
-      <c r="U4">
-        <v>56</v>
-      </c>
-      <c r="V4">
-        <v>4</v>
-      </c>
-      <c r="W4">
-        <v>88</v>
-      </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-      <c r="Y4">
-        <v>112</v>
-      </c>
-      <c r="Z4">
-        <v>3</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>3</v>
-      </c>
-      <c r="AC4">
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="5">
         <v>24</v>
       </c>
-      <c r="AD4">
+      <c r="AD6" s="5">
         <v>2</v>
       </c>
-      <c r="AE4">
+      <c r="AE6" s="5">
         <v>40</v>
       </c>
-      <c r="AF4">
-        <v>3</v>
-      </c>
-      <c r="AG4">
+      <c r="AF6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="5">
         <v>64</v>
       </c>
-      <c r="AH4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>40</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>88</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <v>56</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>88</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>112</v>
-      </c>
-      <c r="Z5">
-        <v>3</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
-        <v>24</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-      <c r="AE5">
-        <v>40</v>
-      </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-      <c r="AG5">
-        <v>64</v>
-      </c>
-      <c r="AH5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>40</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6">
-        <v>88</v>
-      </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>24</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>56</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>80</v>
-      </c>
-      <c r="Z6">
-        <v>7</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>3</v>
-      </c>
-      <c r="AC6">
-        <v>24</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>40</v>
-      </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
-      <c r="AG6">
-        <v>64</v>
-      </c>
-      <c r="AH6">
+      <c r="AH6" s="5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/resources/config/weaponConfig.xlsx
+++ b/assets/resources/config/weaponConfig.xlsx
@@ -146,6 +146,21 @@
     <t>SWORD</t>
   </si>
   <si>
+    <t>SPEAR</t>
+  </si>
+  <si>
+    <t>role/man/spear/attack</t>
+  </si>
+  <si>
+    <t>role/man/spear/action</t>
+  </si>
+  <si>
+    <t>role/man/spear/state</t>
+  </si>
+  <si>
+    <t>KNIFE</t>
+  </si>
+  <si>
     <t>role/woman/knife/attack</t>
   </si>
   <si>
@@ -153,21 +168,6 @@
   </si>
   <si>
     <t>role/woman/knife/state</t>
-  </si>
-  <si>
-    <t>SPEAR</t>
-  </si>
-  <si>
-    <t>role/man/spear/attack</t>
-  </si>
-  <si>
-    <t>role/man/spear/action</t>
-  </si>
-  <si>
-    <t>role/man/spear/state</t>
-  </si>
-  <si>
-    <t>KNIFE</t>
   </si>
   <si>
     <t>BOW</t>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +205,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -661,148 +654,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,8 +1169,8 @@
   </sheetPr>
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1452,25 +1445,25 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5">
         <v>5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>40</v>
-      </c>
-      <c r="P3" s="5">
-        <v>6</v>
       </c>
       <c r="Q3" s="5">
         <v>88</v>
@@ -1479,49 +1472,49 @@
         <v>10</v>
       </c>
       <c r="S3" s="5">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="T3" s="5">
         <v>3</v>
       </c>
       <c r="U3" s="5">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="V3" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="X3" s="5">
         <v>3</v>
       </c>
       <c r="Y3" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="5">
         <v>24</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>30</v>
       </c>
       <c r="AD3" s="5">
         <v>2</v>
       </c>
       <c r="AE3" s="5">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AF3" s="5">
         <v>3</v>
       </c>
       <c r="AG3" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="5">
         <v>5</v>
@@ -1529,7 +1522,7 @@
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:34">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -1556,13 +1549,13 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M4" s="5">
         <v>48</v>
@@ -1633,7 +1626,7 @@
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:34">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -1660,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
@@ -1687,16 +1680,16 @@
         <v>10</v>
       </c>
       <c r="S5" s="5">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T5" s="5">
         <v>3</v>
       </c>
       <c r="U5" s="5">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="V5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5" s="5">
         <v>0</v>
@@ -1708,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="Z5" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA5" s="5">
         <v>56</v>
@@ -1717,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="AC5" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD5" s="5">
         <v>2</v>
@@ -1791,49 +1784,49 @@
         <v>10</v>
       </c>
       <c r="S6" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T6" s="5">
         <v>3</v>
       </c>
       <c r="U6" s="5">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="V6" s="5">
         <v>4</v>
       </c>
       <c r="W6" s="5">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="X6" s="5">
         <v>3</v>
       </c>
       <c r="Y6" s="5">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="Z6" s="5">
         <v>7</v>
       </c>
       <c r="AA6" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="5">
         <v>3</v>
       </c>
       <c r="AC6" s="5">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="5">
         <v>2</v>
       </c>
       <c r="AE6" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF6" s="5">
         <v>3</v>
       </c>
       <c r="AG6" s="5">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="5">
         <v>5</v>
